--- a/node/Historico.xlsx
+++ b/node/Historico.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Area</t>
   </si>
@@ -34,25 +34,40 @@
     <t>Equipo</t>
   </si>
   <si>
-    <t>Nexus</t>
+    <t>Nano</t>
   </si>
   <si>
     <t>Concepto</t>
   </si>
   <si>
-    <t>Proyecto A</t>
-  </si>
-  <si>
-    <t>Juan Pérez</t>
-  </si>
-  <si>
-    <t>video_a.mp4</t>
-  </si>
-  <si>
-    <t>poster_a.jpg</t>
-  </si>
-  <si>
-    <t>Equipo dinamita</t>
+    <t>Proyecto D</t>
+  </si>
+  <si>
+    <t>San Santos</t>
+  </si>
+  <si>
+    <t>video_d.mp4</t>
+  </si>
+  <si>
+    <t>poster_d.jpg</t>
+  </si>
+  <si>
+    <t>Siete</t>
+  </si>
+  <si>
+    <t>Cyber</t>
+  </si>
+  <si>
+    <t>Proyecto F</t>
+  </si>
+  <si>
+    <t>video_f.mp4</t>
+  </si>
+  <si>
+    <t>poster_f.jpg</t>
+  </si>
+  <si>
+    <t>AlfaLobo</t>
   </si>
 </sst>
 </file>
@@ -442,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="7" width="30" customWidth="1"/>
@@ -494,6 +509,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/node/Historico.xlsx
+++ b/node/Historico.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Area</t>
   </si>
@@ -34,40 +34,25 @@
     <t>Equipo</t>
   </si>
   <si>
-    <t>Nano</t>
+    <t>Nexus</t>
   </si>
   <si>
     <t>Concepto</t>
   </si>
   <si>
-    <t>Proyecto D</t>
-  </si>
-  <si>
-    <t>San Santos</t>
-  </si>
-  <si>
-    <t>video_d.mp4</t>
-  </si>
-  <si>
-    <t>poster_d.jpg</t>
-  </si>
-  <si>
-    <t>Siete</t>
-  </si>
-  <si>
-    <t>Cyber</t>
-  </si>
-  <si>
-    <t>Proyecto F</t>
-  </si>
-  <si>
-    <t>video_f.mp4</t>
-  </si>
-  <si>
-    <t>poster_f.jpg</t>
-  </si>
-  <si>
-    <t>AlfaLobo</t>
+    <t>Proyecto A</t>
+  </si>
+  <si>
+    <t>Juan Pérez</t>
+  </si>
+  <si>
+    <t>video_a.mp4</t>
+  </si>
+  <si>
+    <t>poster_a.jpg</t>
+  </si>
+  <si>
+    <t>Equipo dinamita</t>
   </si>
 </sst>
 </file>
@@ -457,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="7" width="30" customWidth="1"/>
@@ -509,29 +494,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
